--- a/src/main/resources/excelsheets/UKLocation/GetUKLocationByTown/UKTown.xlsx
+++ b/src/main/resources/excelsheets/UKLocation/GetUKLocationByTown/UKTown.xlsx
@@ -30,19 +30,19 @@
     <t xml:space="preserve">Value </t>
   </si>
   <si>
-    <t>/NewDataSet/Table[1]/Town</t>
-  </si>
-  <si>
     <t>[A-Z a-z].*</t>
   </si>
   <si>
-    <t>/NewDataSet/Table[1]/County</t>
-  </si>
-  <si>
     <t>[A-Z a-z 0-9].*</t>
   </si>
   <si>
-    <t>/NewDataSet/Table[1]/PostCode</t>
+    <t>/NewDataSet/Table/Town</t>
+  </si>
+  <si>
+    <t>/NewDataSet/Table/County</t>
+  </si>
+  <si>
+    <t>/NewDataSet/Table/PostCode</t>
   </si>
 </sst>
 </file>
@@ -363,13 +363,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C55"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -385,18 +385,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
